--- a/projet1.xlsx
+++ b/projet1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,13 +63,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +99,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:C9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" name="Column3" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +376,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>400</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>500</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>600</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>700</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>800</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/projet1.xlsx
+++ b/projet1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Column1</t>
   </si>
@@ -28,6 +28,21 @@
   </si>
   <si>
     <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -102,12 +117,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" name="Column3" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" dataDxfId="2"/>
+    <tableColumn id="2" name="Column2" dataDxfId="1"/>
+    <tableColumn id="3" name="Column3" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:I9" totalsRowShown="0">
+  <autoFilter ref="D1:I9"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="%"/>
+    <tableColumn id="2" name="code"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -376,18 +406,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.109375" customWidth="1"/>
+    <col min="1" max="9" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +427,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -406,8 +454,14 @@
         <v>200</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -415,8 +469,14 @@
         <v>300</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -424,8 +484,14 @@
         <v>400</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -433,8 +499,14 @@
         <v>500</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -442,8 +514,14 @@
         <v>600</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -451,8 +529,14 @@
         <v>700</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -460,16 +544,29 @@
         <v>800</v>
       </c>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>